--- a/data/tle/2019-11-30_CAT.xlsx
+++ b/data/tle/2019-11-30_CAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB288A9-0090-8F4B-A270-85F23497235B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572EA9EA-3742-D643-91C3-9FE1FB4D36B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>7,1</t>
   </si>
   <si>
-    <t>6,2,1,1,11</t>
-  </si>
-  <si>
     <t>5,2,1,1,1</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>CAT</t>
+  </si>
+  <si>
+    <t>6,2,1,1</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="117" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="117" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -696,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -730,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -740,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3">
         <v>51</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3">
         <v>52</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -865,14 +865,14 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="4">
         <v>2</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -888,21 +888,21 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4">
         <v>3</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="4">
         <v>3</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -918,14 +918,14 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4">
         <v>4</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="4">
@@ -955,14 +955,14 @@
         <v>5</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="4">
         <v>5</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="4">
         <v>54</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1023,14 +1023,14 @@
         <v>2</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="4">
         <v>2</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1053,14 +1053,14 @@
         <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="4">
         <v>3</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1083,14 +1083,14 @@
         <v>4</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="4">
         <v>4</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1113,14 +1113,14 @@
         <v>5</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="4">
         <v>5</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4">
         <v>55</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="4">
         <v>43</v>
@@ -1174,14 +1174,14 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6">
         <v>2</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="4">
@@ -1204,14 +1204,14 @@
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="4">
         <v>3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="4">
@@ -1241,14 +1241,14 @@
         <v>4</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="4">
         <v>4</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1264,21 +1264,21 @@
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="5">
         <v>5</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="4">
         <v>42</v>
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="4">
@@ -1369,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="4">
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="4">
@@ -1422,14 +1422,14 @@
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="5">
         <v>5</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="4">
@@ -1549,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="5">
